--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf7</t>
   </si>
   <si>
     <t>Fgfr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H2">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N2">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q2">
-        <v>114.5403111409831</v>
+        <v>2.604155641506667</v>
       </c>
       <c r="R2">
-        <v>114.5403111409831</v>
+        <v>23.43740077356</v>
       </c>
       <c r="S2">
-        <v>0.09921067745427756</v>
+        <v>0.002131490249813941</v>
       </c>
       <c r="T2">
-        <v>0.09921067745427756</v>
+        <v>0.00213149024981394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H3">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q3">
-        <v>856.409328392098</v>
+        <v>18.955571827488</v>
       </c>
       <c r="R3">
-        <v>856.409328392098</v>
+        <v>170.600146447392</v>
       </c>
       <c r="S3">
-        <v>0.741790805364261</v>
+        <v>0.01551505443298407</v>
       </c>
       <c r="T3">
-        <v>0.741790805364261</v>
+        <v>0.01551505443298407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H4">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N4">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q4">
-        <v>9.915211980767243</v>
+        <v>0.220872668672</v>
       </c>
       <c r="R4">
-        <v>9.915211980767243</v>
+        <v>1.987854018048</v>
       </c>
       <c r="S4">
-        <v>0.008588198232706882</v>
+        <v>0.0001807833342297363</v>
       </c>
       <c r="T4">
-        <v>0.008588198232706882</v>
+        <v>0.0001807833342297362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H5">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N5">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q5">
-        <v>5.976465706991434</v>
+        <v>0.1560115010613333</v>
       </c>
       <c r="R5">
-        <v>5.976465706991434</v>
+        <v>1.404103509552</v>
       </c>
       <c r="S5">
-        <v>0.005176598576225841</v>
+        <v>0.0001276947460708131</v>
       </c>
       <c r="T5">
-        <v>0.005176598576225841</v>
+        <v>0.0001276947460708131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.253928</v>
+      </c>
+      <c r="H6">
+        <v>0.761784</v>
+      </c>
+      <c r="I6">
+        <v>0.0213224453904554</v>
+      </c>
+      <c r="J6">
+        <v>0.0213224453904554</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N6">
+        <v>48.606223</v>
+      </c>
+      <c r="O6">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P6">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q6">
+        <v>4.114160331314666</v>
+      </c>
+      <c r="R6">
+        <v>37.027442981832</v>
+      </c>
+      <c r="S6">
+        <v>0.003367422627356835</v>
+      </c>
+      <c r="T6">
+        <v>0.003367422627356834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H7">
+        <v>34.555187</v>
+      </c>
+      <c r="I7">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J7">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.25548833333333</v>
+      </c>
+      <c r="N7">
+        <v>30.766465</v>
+      </c>
+      <c r="O7">
+        <v>0.09996462463766297</v>
+      </c>
+      <c r="P7">
+        <v>0.09996462463766294</v>
+      </c>
+      <c r="Q7">
+        <v>118.1267723782173</v>
+      </c>
+      <c r="R7">
+        <v>1063.140951403955</v>
+      </c>
+      <c r="S7">
+        <v>0.09668625774628693</v>
+      </c>
+      <c r="T7">
+        <v>0.0966862577462869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H8">
+        <v>34.555187</v>
+      </c>
+      <c r="I8">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J8">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N8">
+        <v>223.948188</v>
+      </c>
+      <c r="O8">
+        <v>0.7276395436298834</v>
+      </c>
+      <c r="P8">
+        <v>0.7276395436298831</v>
+      </c>
+      <c r="Q8">
+        <v>859.8412794056843</v>
+      </c>
+      <c r="R8">
+        <v>7738.571514651157</v>
+      </c>
+      <c r="S8">
+        <v>0.7037764080722931</v>
+      </c>
+      <c r="T8">
+        <v>0.7037764080722929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H9">
+        <v>34.555187</v>
+      </c>
+      <c r="I9">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J9">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.869824</v>
+      </c>
+      <c r="N9">
+        <v>2.609472</v>
+      </c>
+      <c r="O9">
+        <v>0.008478546007235204</v>
+      </c>
+      <c r="P9">
+        <v>0.008478546007235202</v>
+      </c>
+      <c r="Q9">
+        <v>10.01897699236267</v>
+      </c>
+      <c r="R9">
+        <v>90.17079293126402</v>
+      </c>
+      <c r="S9">
+        <v>0.00820048979867264</v>
+      </c>
+      <c r="T9">
+        <v>0.008200489798672638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H10">
+        <v>34.555187</v>
+      </c>
+      <c r="I10">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J10">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6143926666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.843178</v>
+      </c>
+      <c r="O10">
+        <v>0.005988747713148011</v>
+      </c>
+      <c r="P10">
+        <v>0.005988747713148009</v>
+      </c>
+      <c r="Q10">
+        <v>7.076817829365111</v>
+      </c>
+      <c r="R10">
+        <v>63.691360464286</v>
+      </c>
+      <c r="S10">
+        <v>0.005792345112780609</v>
+      </c>
+      <c r="T10">
+        <v>0.005792345112780607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H11">
+        <v>34.555187</v>
+      </c>
+      <c r="I11">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J11">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N11">
+        <v>48.606223</v>
+      </c>
+      <c r="O11">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P11">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q11">
+        <v>186.6219027920779</v>
+      </c>
+      <c r="R11">
+        <v>1679.597125128701</v>
+      </c>
+      <c r="S11">
+        <v>0.1527492289104874</v>
+      </c>
+      <c r="T11">
+        <v>0.1527492289104874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.409888</v>
+      </c>
+      <c r="I12">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J12">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.25548833333333</v>
+      </c>
+      <c r="N12">
+        <v>30.766465</v>
+      </c>
+      <c r="O12">
+        <v>0.09996462463766297</v>
+      </c>
+      <c r="P12">
+        <v>0.09996462463766294</v>
+      </c>
+      <c r="Q12">
+        <v>1.401200533991111</v>
+      </c>
+      <c r="R12">
+        <v>12.61080480592</v>
+      </c>
+      <c r="S12">
+        <v>0.001146876641562092</v>
+      </c>
+      <c r="T12">
+        <v>0.001146876641562091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.409888</v>
+      </c>
+      <c r="I13">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J13">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N13">
+        <v>223.948188</v>
+      </c>
+      <c r="O13">
+        <v>0.7276395436298834</v>
+      </c>
+      <c r="P13">
+        <v>0.7276395436298831</v>
+      </c>
+      <c r="Q13">
+        <v>10.199297209216</v>
+      </c>
+      <c r="R13">
+        <v>91.79367488294402</v>
+      </c>
+      <c r="S13">
+        <v>0.008348081124606157</v>
+      </c>
+      <c r="T13">
+        <v>0.008348081124606156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.409888</v>
+      </c>
+      <c r="I14">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J14">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.869824</v>
+      </c>
+      <c r="N14">
+        <v>2.609472</v>
+      </c>
+      <c r="O14">
+        <v>0.008478546007235204</v>
+      </c>
+      <c r="P14">
+        <v>0.008478546007235202</v>
+      </c>
+      <c r="Q14">
+        <v>0.1188434732373334</v>
+      </c>
+      <c r="R14">
+        <v>1.069591259136</v>
+      </c>
+      <c r="S14">
+        <v>9.727287433282683E-05</v>
+      </c>
+      <c r="T14">
+        <v>9.72728743328268E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>11.4758255405945</v>
-      </c>
-      <c r="H6">
-        <v>11.4758255405945</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="N6">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="O6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="P6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="Q6">
-        <v>167.6746490043721</v>
-      </c>
-      <c r="R6">
-        <v>167.6746490043721</v>
-      </c>
-      <c r="S6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="T6">
-        <v>0.1452337203725286</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.409888</v>
+      </c>
+      <c r="I15">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J15">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6143926666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.843178</v>
+      </c>
+      <c r="O15">
+        <v>0.005988747713148011</v>
+      </c>
+      <c r="P15">
+        <v>0.005988747713148009</v>
+      </c>
+      <c r="Q15">
+        <v>0.08394406045155556</v>
+      </c>
+      <c r="R15">
+        <v>0.7554965440639999</v>
+      </c>
+      <c r="S15">
+        <v>6.870785429658991E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.87078542965899E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.409888</v>
+      </c>
+      <c r="I16">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J16">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.606223</v>
+      </c>
+      <c r="O16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P16">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q16">
+        <v>2.213678614780445</v>
+      </c>
+      <c r="R16">
+        <v>19.923107533024</v>
+      </c>
+      <c r="S16">
+        <v>0.00181188647422634</v>
+      </c>
+      <c r="T16">
+        <v>0.00181188647422634</v>
       </c>
     </row>
   </sheetData>
